--- a/Lab2/1150080068_CNPM1_TranMinhNhat_Lab3_PhanVungBien.xlsx
+++ b/Lab2/1150080068_CNPM1_TranMinhNhat_Lab3_PhanVungBien.xlsx
@@ -1,41 +1,479 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010656D9-8351-4289-9526-2D1BC76F9722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bài2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bài3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Trần Minh Nhật</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>QA Tester's Log</t>
+  </si>
+  <si>
+    <t>Tester's Name</t>
+  </si>
+  <si>
+    <t>Date Tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case (Pass/Fail/Not Executed) </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bộ dữ liệu</t>
+  </si>
+  <si>
+    <t>kq</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>BA3_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra nhập điêm thi</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiểm thử giá trị biên</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị trường nhập điểm thi</t>
+  </si>
+  <si>
+    <t>Người dùng được phép nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>Trường điểm chỉ chấp nhận giá trị số</t>
+  </si>
+  <si>
+    <t>Xmin - = 0-1 = -1</t>
+  </si>
+  <si>
+    <t>Xmin = 0</t>
+  </si>
+  <si>
+    <t>Xmin + = 0+1=1</t>
+  </si>
+  <si>
+    <t>Xmax - = 100-1=99</t>
+  </si>
+  <si>
+    <t>Xmax =100</t>
+  </si>
+  <si>
+    <t>Xmax + = 100 +1 =101</t>
+  </si>
+  <si>
+    <t>Xnom( điểm giữa) = 50</t>
+  </si>
+  <si>
+    <t>Kết hợp kiểm thử phân vùng tương đương</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí chữ / số -&gt; chia 2 vùng</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí số nguyên / không nguyên -&gt; chia 2 vùng</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: Là số nguyên -&gt; Chia thành 3 phân vùng dựa theo tiêu chí khoảng giá trị</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2:Không nguyên -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: Nhập số -&gt; Chia thành 2 phân vùng nguyên/Không nguyên</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: Nhập chữ / ký tự đặc biệt -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí, trong hay ngoài chia thành 3 phân vùng</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: các số nguyên &lt;0</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: Các số nguyên trong khoảng 0&lt;=x&lt;=100</t>
+  </si>
+  <si>
+    <t>*Phân vùng 3: Các số nguyên &gt;100</t>
+  </si>
+  <si>
+    <t>Test Case 1: Điểm nhỏ hơn 0</t>
+  </si>
+  <si>
+    <t>Không hợp lệ</t>
+  </si>
+  <si>
+    <t>Test Case 2: Điểm bằng 0</t>
+  </si>
+  <si>
+    <t>Hợp lệ</t>
+  </si>
+  <si>
+    <t>Test Case 3: Điểm lớn hơn 0</t>
+  </si>
+  <si>
+    <t>Test Case 4: Điểm nhỏ hơn 100</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Test Case 5: Điểm bằng 100</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Test Case 6: Điểm lớn hơn 100</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Test Case 8: Nhập chữ</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Test Case 9: Nhập số không nguyên</t>
+  </si>
+  <si>
+    <t>Test Case 7: Điểm giữa</t>
+  </si>
+  <si>
+    <t>BA3_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra nhập số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Xmin - = 1-1 = 0</t>
+  </si>
+  <si>
+    <t>Xmin = 1</t>
+  </si>
+  <si>
+    <t>Xmin + = 0+1=2</t>
+  </si>
+  <si>
+    <t>Xmax =1000</t>
+  </si>
+  <si>
+    <t>Xnom( điểm giữa) = 500</t>
+  </si>
+  <si>
+    <t>(chưa có trong test case giá trị biên)</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: Các số nguyên trong khoảng 1&lt;=x&lt;=1000</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: các số nguyên &lt;1</t>
+  </si>
+  <si>
+    <t>*Phân vùng 3: Các số nguyên &gt;1000</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị trường nhập số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Trường số lượng chỉ chấp nhận số nguyên</t>
+  </si>
+  <si>
+    <t>Test Case 1: Số lượng &lt; 1</t>
+  </si>
+  <si>
+    <t>Test Case 2: Số lượng = 1</t>
+  </si>
+  <si>
+    <t>Test Case 3: Số lượng &gt; 1</t>
+  </si>
+  <si>
+    <t>Test Case 4: Số lượng &lt; 1000</t>
+  </si>
+  <si>
+    <t>Test Case 5: Số lượng = 1000</t>
+  </si>
+  <si>
+    <t>Test Case 6: Số lượng &gt; 1000</t>
+  </si>
+  <si>
+    <t>Test Case 7: Số lượng danh định</t>
+  </si>
+  <si>
+    <t>Phạm vi đầu vào:</t>
+  </si>
+  <si>
+    <t>*Trường kiểm thử: Trường nhập điểm thi</t>
+  </si>
+  <si>
+    <t>*Kiểu dữ liệu: Số</t>
+  </si>
+  <si>
+    <t>*Phạm vi cho phép: 0&lt;=X&lt;=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>*Trường kiểm thử: Trường nhập số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>*Phạm vi cho phép: 1&lt;=X&lt;=1000</t>
+  </si>
+  <si>
+    <t>*Trường kiểm thử:</t>
+  </si>
+  <si>
+    <t>~Tên đăng nhập</t>
+  </si>
+  <si>
+    <t>~Mật khẩu</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu: Chuỗi kí tự</t>
+  </si>
+  <si>
+    <t>Phạm vi hợp lệ</t>
+  </si>
+  <si>
+    <t>1&lt;=S&lt;=255</t>
+  </si>
+  <si>
+    <t>Xmax =255</t>
+  </si>
+  <si>
+    <t>Xmax - = 255-1=254</t>
+  </si>
+  <si>
+    <t>Xmax - = 1000 -1=999</t>
+  </si>
+  <si>
+    <t>Xmax + = 1000 +1 =1001</t>
+  </si>
+  <si>
+    <t>Xmax + = 255 +1 =256</t>
+  </si>
+  <si>
+    <t>Xnom( điểm giữa) = 128</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: Không nhập (độ dài = 0) → Không hợp lệ</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: Có nhập → Chia 3 vùng theo tiêu chí độ dài</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -45,81 +483,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,19 +823,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="14">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29">
+      <c r="A11" s="19">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="24">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="F15" s="24">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="F16" s="24">
+        <v>8</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="F17" s="24">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29">
+      <c r="A33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="16">
+        <v>99</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="16">
+        <v>100</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29">
+      <c r="A38" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="16">
+        <v>101</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="16">
+        <v>50</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29">
+      <c r="A40" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29">
+      <c r="A41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="16">
+        <v>50.5</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80979A-B0B7-486F-8EC5-07D3823ED79E}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="14">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29">
+      <c r="A11" s="19">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="F14" s="24">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="F15" s="24">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="F16" s="24">
+        <v>8</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="F17" s="24">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="29" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29">
+      <c r="A32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="16">
+        <v>2</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="16">
+        <v>999</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29">
+      <c r="A37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="16">
+        <v>500</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29">
+      <c r="A39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29">
+      <c r="A40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC14F8B-3F7E-4102-9494-47D58435590D}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="14">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29">
+      <c r="A11" s="19">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="24">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="24">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="F16" s="24">
+        <v>8</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="F17" s="24">
+        <v>9</v>
+      </c>
+      <c r="G17" s="19">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="29" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29">
+      <c r="A34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="16">
+        <v>999</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29">
+      <c r="A39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1001</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="16">
+        <v>500</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29">
+      <c r="A41" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="29">
+      <c r="A42" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lab2/1150080068_CNPM1_TranMinhNhat_Lab3_PhanVungBien.xlsx
+++ b/Lab2/1150080068_CNPM1_TranMinhNhat_Lab3_PhanVungBien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiemThuPhanMem\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010656D9-8351-4289-9526-2D1BC76F9722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5B08E-E157-4088-B84B-829898139314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="128">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -341,10 +341,85 @@
     <t>Xnom( điểm giữa) = 128</t>
   </si>
   <si>
-    <t>*Phân vùng 1: Không nhập (độ dài = 0) → Không hợp lệ</t>
-  </si>
-  <si>
-    <t>*Phân vùng 2: Có nhập → Chia 3 vùng theo tiêu chí độ dài</t>
+    <t>*Phân vùng 1: Không nhập (độ dài = 0) -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: Có nhập -&gt; Chia 3 vùng theo tiêu chí độ dài</t>
+  </si>
+  <si>
+    <t>*Phân vùng 1: Phân vùng 1: Độ dài &lt; 1 -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>*Phân vùng 2: 1 ≤ độ dài ≤ 255 -&gt; Hợp lệ</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí độ dài chuỗi -&gt; chia 3 vùng</t>
+  </si>
+  <si>
+    <t>*Phân vùng 3: Độ dài &gt; 255 -&gt; Không hợp lệ</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị form đăng nhập</t>
+  </si>
+  <si>
+    <t>Người dùng được phép nhập tên đăng nhập và mật khẩu</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập và mật khẩu là kiểu chuỗi ký tự</t>
+  </si>
+  <si>
+    <t>Test Case 1: Không nhập username &amp; password</t>
+  </si>
+  <si>
+    <t>"" / ""</t>
+  </si>
+  <si>
+    <t>Test Case 2: Độ dài = 1 ký tự</t>
+  </si>
+  <si>
+    <t>"a" / "a"</t>
+  </si>
+  <si>
+    <t>Test Case 3: Độ dài &gt; 1 ký tự</t>
+  </si>
+  <si>
+    <t>"ab" / "ab"</t>
+  </si>
+  <si>
+    <t>Test Case 4: Độ dài = 254 ký tự</t>
+  </si>
+  <si>
+    <t>(254 ký tự)</t>
+  </si>
+  <si>
+    <t>Test Case 5: Độ dài = 255 ký tự</t>
+  </si>
+  <si>
+    <t>(255 ký tự)</t>
+  </si>
+  <si>
+    <t>Test Case 6: Độ dài &gt; 255 ký tự</t>
+  </si>
+  <si>
+    <t>(256 ký tự)</t>
+  </si>
+  <si>
+    <t>Test Case 7: Độ dài danh định</t>
+  </si>
+  <si>
+    <t>(128 ký tự)</t>
+  </si>
+  <si>
+    <t>Test Case 8: Username hợp lệ – Password rỗng</t>
+  </si>
+  <si>
+    <t>"user" / ""</t>
+  </si>
+  <si>
+    <t>Test Case 9: Username rỗng – Password hợp lệ</t>
+  </si>
+  <si>
+    <t>"" / "pass123"</t>
   </si>
 </sst>
 </file>
@@ -485,37 +560,10 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,6 +591,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,195 +917,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="14">
+      <c r="E6" s="21"/>
+      <c r="F6" s="5">
         <v>46028</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29">
-      <c r="A9" s="19">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29">
-      <c r="A10" s="19">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29">
-      <c r="A11" s="19">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="F12" s="2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="24">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="F14" s="15">
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="10">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="F15" s="24">
+      <c r="B15" s="8"/>
+      <c r="F15" s="15">
         <v>7</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="F16" s="24">
+      <c r="B16" s="8"/>
+      <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="F17" s="24">
+      <c r="B17" s="8"/>
+      <c r="F17" s="15">
         <v>9</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="10">
         <v>50.5</v>
       </c>
     </row>
@@ -1038,232 +1113,232 @@
       <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="7">
         <v>-1</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="7">
         <v>99</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="7">
         <v>100</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="29">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="7">
         <v>101</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="7">
         <v>50</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="7">
         <v>50.5</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1304,185 +1379,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="14">
+      <c r="E6" s="21"/>
+      <c r="F6" s="5">
         <v>46028</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29">
-      <c r="A9" s="19">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29">
-      <c r="A10" s="19">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29">
-      <c r="A11" s="19">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="F12" s="2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="F14" s="24">
+      <c r="B14" s="8"/>
+      <c r="F14" s="15">
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="10">
         <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="F15" s="24">
+      <c r="B15" s="8"/>
+      <c r="F15" s="15">
         <v>7</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="F16" s="24">
+      <c r="B16" s="8"/>
+      <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1490,79 +1565,79 @@
       <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="F17" s="24">
+      <c r="B17" s="8"/>
+      <c r="F17" s="15">
         <v>9</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="10">
         <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
@@ -1570,163 +1645,163 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>999</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="7">
         <v>1000</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="29">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="7">
         <v>1001</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="7">
         <v>500</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="7">
         <v>10.5</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1750,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC14F8B-3F7E-4102-9494-47D58435590D}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1766,440 +1841,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="14">
+      <c r="E6" s="21"/>
+      <c r="F6" s="5">
         <v>46028</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29">
-      <c r="A9" s="19">
+    <row r="9" spans="1:9">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="B9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
-        <v>0</v>
+      <c r="G9" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29">
-      <c r="A10" s="19">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
-        <v>1</v>
+      <c r="G10" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29">
-      <c r="A11" s="19">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="19">
-        <v>2</v>
+      <c r="G11" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="F12" s="2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="19">
-        <v>999</v>
+      <c r="G12" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="F13" s="2">
+      <c r="B13" s="8"/>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
-        <v>1000</v>
+      <c r="G13" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="15">
         <v>6</v>
       </c>
-      <c r="G14" s="19">
-        <v>1001</v>
+      <c r="G14" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="15">
         <v>7</v>
       </c>
-      <c r="G15" s="19">
-        <v>500</v>
+      <c r="G15" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="F16" s="24">
+      <c r="B16" s="8"/>
+      <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>58</v>
+      <c r="G16" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="F17" s="24">
+      <c r="B17" s="8"/>
+      <c r="F17" s="15">
         <v>9</v>
       </c>
-      <c r="G17" s="19">
-        <v>10.5</v>
+      <c r="G17" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>36</v>
+      <c r="D25" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>37</v>
+      <c r="D26" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>41</v>
+      <c r="D28" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="D30" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="D31" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="B35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="16">
-        <v>2</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="16">
-        <v>999</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="B37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="16">
-        <v>1001</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="B39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="16">
-        <v>500</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="B40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="B41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="16">
-        <v>10.5</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="B42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2216,5 +2282,6 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>